--- a/convt_break.xlsx
+++ b/convt_break.xlsx
@@ -441,12 +441,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>AEF %</t>
+          <t>eb total</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>eb total</t>
+          <t>AEF %</t>
         </is>
       </c>
     </row>
@@ -455,10 +455,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.02333333333333333</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.035</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.02333333333333333</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="4">
@@ -477,10 +477,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="5">
@@ -488,10 +488,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>78.73999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -499,10 +499,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>375</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>85.315</v>
       </c>
     </row>
     <row r="7">
@@ -510,10 +510,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.425</v>
+        <v>272</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>87.46000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>84.46666666666667</v>
+        <v>129</v>
       </c>
       <c r="C8" t="n">
-        <v>1020</v>
+        <v>80.12</v>
       </c>
     </row>
     <row r="9">
@@ -532,10 +532,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>83.55</v>
+        <v>174</v>
       </c>
       <c r="C9" t="n">
-        <v>1034</v>
+        <v>79.45999999999999</v>
       </c>
     </row>
     <row r="10">
@@ -543,10 +543,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>80.47</v>
+        <v>370</v>
       </c>
       <c r="C10" t="n">
-        <v>216</v>
+        <v>84.25999999999999</v>
       </c>
     </row>
     <row r="11">
@@ -554,10 +554,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>56.34666666666666</v>
+        <v>355</v>
       </c>
       <c r="C11" t="n">
-        <v>712</v>
+        <v>81.735</v>
       </c>
     </row>
     <row r="12">
@@ -565,10 +565,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>84.76666666666667</v>
+        <v>300</v>
       </c>
       <c r="C12" t="n">
-        <v>1034</v>
+        <v>82.25</v>
       </c>
     </row>
     <row r="13">
@@ -576,10 +576,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>55.51333333333334</v>
+        <v>345</v>
       </c>
       <c r="C13" t="n">
-        <v>810</v>
+        <v>35.005</v>
       </c>
     </row>
     <row r="14">
@@ -587,10 +587,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>74.58</v>
+        <v>795</v>
       </c>
       <c r="C14" t="n">
-        <v>1816</v>
+        <v>74.47999999999999</v>
       </c>
     </row>
     <row r="15">
@@ -598,10 +598,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>80.55666666666667</v>
+        <v>649</v>
       </c>
       <c r="C15" t="n">
-        <v>1382</v>
+        <v>75.47499999999999</v>
       </c>
     </row>
     <row r="16">
@@ -609,10 +609,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>81.55333333333333</v>
+        <v>687</v>
       </c>
       <c r="C16" t="n">
-        <v>1406</v>
+        <v>74.765</v>
       </c>
     </row>
     <row r="17">
@@ -620,10 +620,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>80.455</v>
+        <v>788</v>
       </c>
       <c r="C17" t="n">
-        <v>1814</v>
+        <v>73.735</v>
       </c>
     </row>
     <row r="18">
@@ -631,10 +631,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>31.92</v>
+        <v>434</v>
       </c>
       <c r="C18" t="n">
-        <v>1130</v>
+        <v>71.56</v>
       </c>
     </row>
     <row r="19">
@@ -642,10 +642,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>20.58</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>226</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -653,10 +653,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>87.38666666666666</v>
+        <v>303</v>
       </c>
       <c r="C20" t="n">
-        <v>1048</v>
+        <v>85.565</v>
       </c>
     </row>
     <row r="21">
@@ -664,10 +664,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>86.19666666666667</v>
+        <v>514</v>
       </c>
       <c r="C21" t="n">
-        <v>1348</v>
+        <v>79.24000000000001</v>
       </c>
     </row>
     <row r="22">
@@ -675,10 +675,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>87.57333333333332</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>1218</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -686,10 +686,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>86.31999999999999</v>
+        <v>393</v>
       </c>
       <c r="C23" t="n">
-        <v>1112</v>
+        <v>84.62</v>
       </c>
     </row>
     <row r="24">
@@ -697,10 +697,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>56.71333333333333</v>
+        <v>471</v>
       </c>
       <c r="C24" t="n">
-        <v>766</v>
+        <v>78.41499999999999</v>
       </c>
     </row>
     <row r="25">
@@ -708,10 +708,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>56.06</v>
+        <v>498</v>
       </c>
       <c r="C25" t="n">
-        <v>1082</v>
+        <v>81.065</v>
       </c>
     </row>
     <row r="26">
@@ -719,10 +719,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>57.76666666666667</v>
+        <v>594</v>
       </c>
       <c r="C26" t="n">
-        <v>934</v>
+        <v>82.25999999999999</v>
       </c>
     </row>
     <row r="27">
@@ -730,10 +730,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>57.51</v>
+        <v>400</v>
       </c>
       <c r="C27" t="n">
-        <v>756</v>
+        <v>83.315</v>
       </c>
     </row>
     <row r="28">
@@ -741,10 +741,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>54.56999999999999</v>
+        <v>479</v>
       </c>
       <c r="C28" t="n">
-        <v>876</v>
+        <v>78.31999999999999</v>
       </c>
     </row>
     <row r="29">
@@ -752,10 +752,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>52.35666666666667</v>
+        <v>180</v>
       </c>
       <c r="C29" t="n">
-        <v>976</v>
+        <v>26.3</v>
       </c>
     </row>
     <row r="30">
@@ -763,10 +763,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>25.42333333333333</v>
+        <v>508</v>
       </c>
       <c r="C30" t="n">
-        <v>506</v>
+        <v>76.095</v>
       </c>
     </row>
     <row r="31">
@@ -774,10 +774,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>27.86333333333333</v>
+        <v>449</v>
       </c>
       <c r="C31" t="n">
-        <v>400</v>
+        <v>80.7</v>
       </c>
     </row>
     <row r="32">

--- a/convt_break.xlsx
+++ b/convt_break.xlsx
@@ -458,7 +458,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.035</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -469,7 +469,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -488,10 +488,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>78.73999999999999</v>
+        <v>10.63</v>
       </c>
     </row>
     <row r="6">
@@ -499,10 +499,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>375</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>85.315</v>
+        <v>77.81</v>
       </c>
     </row>
     <row r="7">
@@ -510,10 +510,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>272</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
-        <v>87.46000000000001</v>
+        <v>21.86</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>129</v>
+        <v>19</v>
       </c>
       <c r="C8" t="n">
-        <v>80.12</v>
+        <v>57.09</v>
       </c>
     </row>
     <row r="9">
@@ -532,10 +532,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>174</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>79.45999999999999</v>
+        <v>41.3</v>
       </c>
     </row>
     <row r="10">
@@ -543,10 +543,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>370</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
-        <v>84.25999999999999</v>
+        <v>80.31</v>
       </c>
     </row>
     <row r="11">
@@ -554,10 +554,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>355</v>
+        <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>81.735</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12">
@@ -565,10 +565,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>300</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>82.25</v>
+        <v>42.31</v>
       </c>
     </row>
     <row r="13">
@@ -576,10 +576,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>345</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>35.005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -587,10 +587,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>795</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>74.47999999999999</v>
+        <v>15.57</v>
       </c>
     </row>
     <row r="15">
@@ -598,10 +598,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>649</v>
+        <v>8</v>
       </c>
       <c r="C15" t="n">
-        <v>75.47499999999999</v>
+        <v>25.03</v>
       </c>
     </row>
     <row r="16">
@@ -609,10 +609,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>687</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>74.765</v>
+        <v>53.15</v>
       </c>
     </row>
     <row r="17">
@@ -620,10 +620,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>788</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>73.735</v>
+        <v>47.57</v>
       </c>
     </row>
     <row r="18">
@@ -631,10 +631,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>434</v>
+        <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>71.56</v>
+        <v>53.04</v>
       </c>
     </row>
     <row r="19">
@@ -642,10 +642,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>46.22</v>
       </c>
     </row>
     <row r="20">
@@ -653,10 +653,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>303</v>
+        <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>85.565</v>
+        <v>64.42</v>
       </c>
     </row>
     <row r="21">
@@ -664,10 +664,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>514</v>
+        <v>8</v>
       </c>
       <c r="C21" t="n">
-        <v>79.24000000000001</v>
+        <v>66.59999999999999</v>
       </c>
     </row>
     <row r="22">
@@ -686,10 +686,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>393</v>
+        <v>6</v>
       </c>
       <c r="C23" t="n">
-        <v>84.62</v>
+        <v>35.22</v>
       </c>
     </row>
     <row r="24">
@@ -697,10 +697,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>471</v>
+        <v>2</v>
       </c>
       <c r="C24" t="n">
-        <v>78.41499999999999</v>
+        <v>66.95</v>
       </c>
     </row>
     <row r="25">
@@ -708,10 +708,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>498</v>
+        <v>12</v>
       </c>
       <c r="C25" t="n">
-        <v>81.065</v>
+        <v>55.13</v>
       </c>
     </row>
     <row r="26">
@@ -719,10 +719,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>594</v>
+        <v>2</v>
       </c>
       <c r="C26" t="n">
-        <v>82.25999999999999</v>
+        <v>25.11</v>
       </c>
     </row>
     <row r="27">
@@ -730,10 +730,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>400</v>
+        <v>2</v>
       </c>
       <c r="C27" t="n">
-        <v>83.315</v>
+        <v>46.65</v>
       </c>
     </row>
     <row r="28">
@@ -741,10 +741,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>479</v>
+        <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>78.31999999999999</v>
+        <v>24.35</v>
       </c>
     </row>
     <row r="29">
@@ -752,10 +752,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>26.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -763,10 +763,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>508</v>
+        <v>3</v>
       </c>
       <c r="C30" t="n">
-        <v>76.095</v>
+        <v>32.79</v>
       </c>
     </row>
     <row r="31">
@@ -774,10 +774,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>449</v>
+        <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>80.7</v>
+        <v>67.34999999999999</v>
       </c>
     </row>
     <row r="32">

--- a/convt_break.xlsx
+++ b/convt_break.xlsx
@@ -499,7 +499,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C6" t="n">
         <v>77.81</v>
@@ -510,7 +510,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>21.86</v>
@@ -521,7 +521,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C8" t="n">
         <v>57.09</v>
@@ -532,7 +532,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>41.3</v>
@@ -543,7 +543,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C10" t="n">
         <v>80.31</v>
@@ -554,7 +554,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C11" t="n">
         <v>72</v>
@@ -565,7 +565,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C12" t="n">
         <v>42.31</v>
@@ -587,7 +587,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C14" t="n">
         <v>15.57</v>
@@ -598,7 +598,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C15" t="n">
         <v>25.03</v>
@@ -609,7 +609,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16" t="n">
         <v>53.15</v>
@@ -620,7 +620,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17" t="n">
         <v>47.57</v>
@@ -631,7 +631,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C18" t="n">
         <v>53.04</v>
@@ -642,7 +642,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C19" t="n">
         <v>46.22</v>
@@ -653,7 +653,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C20" t="n">
         <v>64.42</v>
@@ -664,7 +664,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C21" t="n">
         <v>66.59999999999999</v>
@@ -686,7 +686,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C23" t="n">
         <v>35.22</v>
@@ -697,7 +697,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C24" t="n">
         <v>66.95</v>
@@ -708,7 +708,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C25" t="n">
         <v>55.13</v>
@@ -719,7 +719,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C26" t="n">
         <v>25.11</v>
@@ -730,7 +730,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C27" t="n">
         <v>46.65</v>
@@ -741,7 +741,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C28" t="n">
         <v>24.35</v>
@@ -763,7 +763,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C30" t="n">
         <v>32.79</v>
@@ -774,7 +774,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C31" t="n">
         <v>67.34999999999999</v>

--- a/convt_break.xlsx
+++ b/convt_break.xlsx
@@ -499,7 +499,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C6" t="n">
         <v>77.81</v>
@@ -510,7 +510,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C7" t="n">
         <v>21.86</v>
@@ -521,7 +521,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="C8" t="n">
         <v>57.09</v>
@@ -532,7 +532,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
         <v>41.3</v>
@@ -543,7 +543,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C10" t="n">
         <v>80.31</v>
@@ -554,7 +554,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C11" t="n">
         <v>72</v>
@@ -565,7 +565,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C12" t="n">
         <v>42.31</v>
@@ -587,7 +587,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C14" t="n">
         <v>15.57</v>
@@ -598,7 +598,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C15" t="n">
         <v>25.03</v>
@@ -609,7 +609,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16" t="n">
         <v>53.15</v>
@@ -620,7 +620,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C17" t="n">
         <v>47.57</v>
@@ -631,7 +631,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C18" t="n">
         <v>53.04</v>
@@ -642,7 +642,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C19" t="n">
         <v>46.22</v>
@@ -653,7 +653,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="C20" t="n">
         <v>64.42</v>
@@ -664,7 +664,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C21" t="n">
         <v>66.59999999999999</v>
@@ -686,7 +686,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C23" t="n">
         <v>35.22</v>
@@ -697,7 +697,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C24" t="n">
         <v>66.95</v>
@@ -708,7 +708,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C25" t="n">
         <v>55.13</v>
@@ -719,7 +719,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C26" t="n">
         <v>25.11</v>
@@ -730,7 +730,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C27" t="n">
         <v>46.65</v>
@@ -741,7 +741,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C28" t="n">
         <v>24.35</v>
@@ -763,7 +763,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C30" t="n">
         <v>32.79</v>
@@ -774,7 +774,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C31" t="n">
         <v>67.34999999999999</v>
